--- a/differences_6_0.7.xlsx
+++ b/differences_6_0.7.xlsx
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.178</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1930000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.058</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1309999999999999</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07900000000000007</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03899999999999992</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.115</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.05800000000000005</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.103</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.149</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.103</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.04699999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.03800000000000003</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.104</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.006000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.172</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09900000000000009</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07200000000000001</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05699999999999994</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.143</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02300000000000002</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07800000000000001</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05499999999999994</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.07500000000000001</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03899999999999992</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.02100000000000002</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.03599999999999992</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.01200000000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.143</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.01700000000000002</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.08200000000000002</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03600000000000003</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.03399999999999992</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01899999999999991</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.06699999999999995</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.02599999999999997</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06699999999999995</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05899999999999994</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-0.04700000000000004</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05199999999999994</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.08099999999999996</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03299999999999992</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06099999999999994</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.05600000000000005</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.07599999999999996</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.066</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.109</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1956,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.04499999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.08299999999999996</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.09499999999999997</v>
+        <v>0.05600000000000005</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06300000000000006</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.06499999999999995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04400000000000004</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.06400000000000006</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.004999999999999893</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2364,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.06300000000000006</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.04399999999999993</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03100000000000003</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.05299999999999994</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.05700000000000005</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06499999999999995</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05200000000000005</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.08900000000000002</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.07200000000000006</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.05099999999999999</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.061</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>-0.058</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.07100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.01299999999999996</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>-0.059</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.05699999999999994</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.064</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07400000000000007</v>
+        <v>-0.01999999999999991</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2861,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05599999999999994</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04199999999999993</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.02799999999999991</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07400000000000007</v>
+        <v>-0.04799999999999993</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2999,16 +2999,16 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.05199999999999994</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3045,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04399999999999993</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.04299999999999998</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06800000000000006</v>
+        <v>-0.03899999999999992</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.03300000000000003</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07699999999999996</v>
+        <v>-0.02300000000000002</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.08000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.04100000000000004</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -3327,16 +3327,16 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03199999999999992</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.07199999999999995</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06199999999999994</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-0.04900000000000004</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04000000000000004</v>
+        <v>-0.05699999999999994</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3425,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.158</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.04300000000000004</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0.05300000000000005</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-0.04700000000000004</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02299999999999991</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04600000000000004</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.08099999999999996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01000000000000001</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.01600000000000001</v>
+        <v>-0.04199999999999998</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.06099999999999994</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.08699999999999997</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-0.03600000000000003</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.08700000000000002</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.03100000000000003</v>
+        <v>-0.04599999999999999</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.04899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03800000000000003</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03700000000000003</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.08699999999999997</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.07200000000000001</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.06899999999999995</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07200000000000006</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.05299999999999994</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4057,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.08300000000000002</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.08700000000000002</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03999999999999992</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.08199999999999996</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1779999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.136</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03799999999999998</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.04099999999999993</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -4247,16 +4247,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>-0.05099999999999993</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4296,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06799999999999995</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.06099999999999994</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4385,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.04900000000000004</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04299999999999998</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -4440,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.07799999999999996</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.144</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.09399999999999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.05800000000000005</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04600000000000004</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4771,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>-0.146</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>-0.05499999999999999</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4793,19 +4793,19 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.07199999999999995</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-0.03799999999999992</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4857,16 +4857,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-0.063</v>
       </c>
       <c r="L96" t="n">
-        <v>0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.04699999999999993</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4952,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="L98" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.07800000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5090,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
